--- a/data/trans_camb/P24_1_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P24_1_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,79</t>
+          <t>4,75</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-7,84</t>
+          <t>-9,44</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-9,7</t>
+          <t>-9,95</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-6,66</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>3,22</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>10,85</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-8,8</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-20,41</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-23,94</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-19,23</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>6,37</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-5,23</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-1,6</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-14,41</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-16,38</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
           <t>-8,56</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-20,68</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-23,46</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-7,62</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-0,95</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-13,74</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>-16,02</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>-7,2</t>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>4,62</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>3,26</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 17,94</t>
+          <t>-5,1; 14,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-15,81; 2,04</t>
+          <t>-17,4; 0,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-18,4; 0,03</t>
+          <t>-18,67; -0,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-16,33; 2,76</t>
+          <t>-9,3; 12,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-19,13; 2,22</t>
+          <t>-9,63; 15,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-31,21; -11,27</t>
+          <t>-0,18; 22,72</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-33,27; -12,79</t>
+          <t>-20,33; 1,97</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-19,36; 4,81</t>
+          <t>-30,8; -10,44</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-9,17; 6,73</t>
+          <t>-34,14; -13,95</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-20,46; -6,62</t>
+          <t>-29,25; -7,45</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>-23,11; -8,99</t>
+          <t>-5,67; 18,46</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>-15,33; 0,51</t>
+          <t>-17,45; 7,65</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-9,21; 6,01</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-21,81; -7,92</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-23,1; -9,15</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>-15,89; -0,55</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>-4,73; 13,09</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>-6,0; 11,65</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>24,24%</t>
+          <t>19,87%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-32,78%</t>
+          <t>-39,49%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-40,58%</t>
+          <t>-41,64%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-27,88%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-18,68%</t>
+          <t>12,95%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-45,12%</t>
+          <t>62,96%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-51,18%</t>
+          <t>-19,19%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-16,62%</t>
+          <t>-44,53%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-2,78%</t>
+          <t>-52,22%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-40,05%</t>
+          <t>-41,95%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>-46,7%</t>
+          <t>23,95%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>-20,97%</t>
+          <t>-13,69%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-4,68%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-42,0%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-47,73%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>-24,95%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>17,96%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>12,04%</t>
         </is>
       </c>
     </row>
@@ -860,62 +998,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-15,86; 93,38</t>
+          <t>-19,13; 75,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-58,89; 10,59</t>
+          <t>-62,92; 5,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-67,42; 1,49</t>
+          <t>-66,74; -1,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-58,32; 15,63</t>
+          <t>-35,36; 60,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-37,91; 5,1</t>
+          <t>-30,16; 81,64</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-60,43; -26,76</t>
+          <t>-0,89; 190,4</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-65,78; -31,16</t>
+          <t>-40,54; 4,76</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-38,84; 11,1</t>
+          <t>-60,42; -26,75</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-24,23; 22,16</t>
+          <t>-66,89; -32,83</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-54,01; -21,15</t>
+          <t>-58,64; -19,04</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>-60,2; -27,91</t>
+          <t>-18,44; 89,23</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>-39,91; 2,22</t>
+          <t>-39,19; 26,43</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-24,31; 20,24</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-55,85; -24,37</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-62,11; -30,84</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>-42,31; -1,56</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>-15,19; 61,46</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>-20,26; 49,36</t>
         </is>
       </c>
     </row>
@@ -932,62 +1100,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9,94</t>
+          <t>10,59</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,99</t>
+          <t>2,79</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,65</t>
+          <t>3,96</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,27</t>
+          <t>19,28</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,99</t>
+          <t>2,14</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,48</t>
+          <t>12,15</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>2,83</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>8,38</t>
+          <t>-1,29</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>6,6</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>1,94</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>2,05</t>
+          <t>6,69</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>8,93</t>
+          <t>0,25</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>6,84</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>0,77</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>2,08</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>11,01</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>4,29</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>6,37</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,0; 22,37</t>
+          <t>0,01; 24,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 11,43</t>
+          <t>-5,62; 10,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 12,87</t>
+          <t>-4,32; 13,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 19,68</t>
+          <t>6,24; 38,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,35; 13,51</t>
+          <t>-19,56; 17,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,96; 7,48</t>
+          <t>-0,51; 24,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-7,8; 9,85</t>
+          <t>-6,22; 12,32</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 18,33</t>
+          <t>-10,01; 7,06</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 15,01</t>
+          <t>-8,23; 8,87</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 7,18</t>
+          <t>-7,37; 12,36</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 8,24</t>
+          <t>-3,76; 16,92</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,96; 16,54</t>
+          <t>-10,24; 10,42</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-0,84; 14,9</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-5,4; 6,71</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-3,83; 8,6</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>2,41; 23,11</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>-8,21; 13,2</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>-2,45; 14,67</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>61,96%</t>
+          <t>65,98%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>18,65%</t>
+          <t>17,39%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>22,76%</t>
+          <t>24,65%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>57,76%</t>
+          <t>120,1%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>9,96%</t>
+          <t>6,07%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-4,92%</t>
+          <t>48,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>9,44%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>27,89%</t>
+          <t>-4,29%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>28,98%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>6,46%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>9,0%</t>
+          <t>20,92%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>39,25%</t>
+          <t>0,66%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>30,05%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>3,4%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>9,12%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>48,39%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>12,71%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>20,11%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 176,63</t>
+          <t>-5,66; 190,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-23,81; 101,47</t>
+          <t>-27,94; 89,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-22,82; 106,36</t>
+          <t>-23,36; 114,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,2; 167,14</t>
+          <t>29,06; 297,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-18,64; 52,26</t>
+          <t>-40,4; 71,65</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-28,95; 29,26</t>
+          <t>-2,3; 133,7</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-23,17; 38,41</t>
+          <t>-18,47; 47,36</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-6,8; 70,08</t>
+          <t>-29,73; 27,78</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 74,16</t>
+          <t>-24,24; 34,64</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-19,67; 38,5</t>
+          <t>-22,18; 47,52</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>-17,75; 42,26</t>
+          <t>-11,1; 63,71</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>8,51; 86,84</t>
+          <t>-23,9; 30,2</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-3,98; 71,74</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-20,77; 35,43</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-14,76; 43,99</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>9,13; 109,41</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>-21,03; 45,44</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>-6,52; 53,78</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1496,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,25</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-4,91</t>
+          <t>-4,75</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,39</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-6,08</t>
+          <t>3,1</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-10,92</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-5,88</t>
+          <t>-5,15</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>-10,43</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-4,24</t>
+          <t>-5,43</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>-5,89</t>
+          <t>-6,06</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>-5,32</t>
+          <t>13,01</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>7,12</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-3,0</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>-5,68</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>-5,02</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>-2,64</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>7,55</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>4,21</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1594,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,77; 6,41</t>
+          <t>-8,81; 7,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,13; 6,65</t>
+          <t>-8,74; 6,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-12,51; 1,94</t>
+          <t>-12,57; 2,86</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 10,81</t>
+          <t>-7,76; 8,63</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-13,8; 1,19</t>
+          <t>-4,98; 12,43</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-18,5; -4,29</t>
+          <t>-7,0; 10,23</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-12,73; 1,03</t>
+          <t>-12,76; 2,03</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-7,83; 8,17</t>
+          <t>-17,62; -3,16</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-10,17; 1,49</t>
+          <t>-13,11; 1,26</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-11,0; -0,81</t>
+          <t>-12,63; 1,99</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>-10,73; -0,41</t>
+          <t>4,57; 21,75</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 6,61</t>
+          <t>-1,93; 16,0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-8,56; 2,72</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-10,74; -0,2</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-10,45; 0,24</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>-8,57; 2,88</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>1,2; 13,81</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>-2,1; 10,66</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1692,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-9,65%</t>
+          <t>-3,62%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-3,3%</t>
+          <t>-3,67%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-21,05%</t>
+          <t>-20,36%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>10,26%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-16,38%</t>
+          <t>12,85%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-29,43%</t>
+          <t>5,77%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-15,84%</t>
+          <t>-13,88%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-0,44%</t>
+          <t>-28,11%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-13,98%</t>
+          <t>-14,63%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>-19,43%</t>
+          <t>-16,34%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>-17,56%</t>
+          <t>41,92%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>19,27%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-9,9%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>-18,74%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>-16,57%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>-8,7%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>27,29%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>13,59%</t>
         </is>
       </c>
     </row>
@@ -1412,62 +1790,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-39,26; 32,73</t>
+          <t>-32,27; 39,66</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-32,93; 33,84</t>
+          <t>-31,52; 33,46</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-45,65; 9,97</t>
+          <t>-44,25; 15,93</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-23,06; 57,48</t>
+          <t>-28,69; 44,16</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-34,59; 3,88</t>
+          <t>-18,08; 64,31</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-44,26; -12,47</t>
+          <t>-23,9; 46,84</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-31,09; 3,56</t>
+          <t>-31,12; 6,27</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-19,69; 24,6</t>
+          <t>-42,91; -9,9</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-31,07; 5,47</t>
+          <t>-32,12; 4,2</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-32,73; -3,19</t>
+          <t>-31,36; 6,12</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>-32,73; -1,6</t>
+          <t>13,17; 81,64</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>-16,54; 23,54</t>
+          <t>-4,52; 49,63</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-26,33; 9,66</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-32,93; -1,26</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-31,04; 1,16</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>-25,68; 10,26</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>3,4; 56,53</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>-6,38; 39,62</t>
         </is>
       </c>
     </row>
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>12,78</t>
+          <t>7,22</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,0</t>
+          <t>9,83</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>4,28</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>3,46</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>13,89</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>3,6</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>5,95</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>1,77</t>
+          <t>2,24</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>12,49</t>
+          <t>-5,7</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>0,92</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>1,47</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>2,02</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>6,23</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>5,88</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>-0,38</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,61; 9,17</t>
+          <t>-7,42; 8,64</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,96; 7,63</t>
+          <t>-6,54; 8,99</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,52; 7,91</t>
+          <t>-7,16; 7,89</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,56; 21,8</t>
+          <t>-1,39; 16,05</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,33; 7,11</t>
+          <t>-0,17; 18,11</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 8,53</t>
+          <t>-5,62; 13,69</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 10,89</t>
+          <t>-7,05; 8,28</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>5,61; 22,63</t>
+          <t>-5,45; 9,84</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 5,54</t>
+          <t>-3,2; 10,86</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 6,17</t>
+          <t>-1,52; 14,26</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 6,59</t>
+          <t>-5,8; 10,77</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>6,11; 18,1</t>
+          <t>-14,54; 3,67</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-4,6; 6,68</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-4,57; 6,6</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-3,6; 6,78</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>0,73; 12,52</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>-1,35; 11,74</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>-7,78; 6,17</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>6,99%</t>
+          <t>8,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>4,87%</t>
+          <t>8,61%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>4,24%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>61,15%</t>
+          <t>34,57%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-0,0%</t>
+          <t>34,96%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>3,58%</t>
+          <t>12,71%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>9,34%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>37,49%</t>
+          <t>4,28%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>9,71%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>16,06%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>6,02%</t>
+          <t>5,21%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>42,52%</t>
+          <t>-11,19%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>3,15%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>5,0%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>6,88%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>21,22%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>16,52%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>-0,9%</t>
         </is>
       </c>
     </row>
@@ -1688,62 +2186,92 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-26,61; 52,27</t>
+          <t>-28,86; 47,75</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-28,11; 44,15</t>
+          <t>-27,24; 52,79</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-25,62; 47,22</t>
+          <t>-27,59; 47,45</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>11,86; 119,07</t>
+          <t>-7,43; 87,31</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-18,26; 21,5</t>
+          <t>-0,58; 77,97</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-14,45; 25,64</t>
+          <t>-14,46; 48,5</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-7,56; 32,94</t>
+          <t>-17,47; 25,56</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>13,84; 65,75</t>
+          <t>-13,52; 29,32</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-14,76; 20,53</t>
+          <t>-7,82; 32,69</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>-13,04; 23,28</t>
+          <t>-3,68; 42,88</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>-11,94; 24,46</t>
+          <t>-12,13; 27,81</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>18,66; 66,52</t>
+          <t>-26,44; 8,18</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-14,86; 24,88</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-13,71; 24,42</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-11,51; 25,26</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>1,86; 45,64</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>-3,37; 36,03</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>-16,72; 16,02</t>
         </is>
       </c>
     </row>
@@ -1760,62 +2288,92 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>9,48</t>
+          <t>9,71</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>9,42</t>
+          <t>10,15</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>21,11</t>
+          <t>8,99</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>2,99</t>
+          <t>11,35</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>9,21</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>7,16</t>
+          <t>3,68</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>26,18</t>
+          <t>9,31</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>6,33</t>
+          <t>7,32</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>9,38</t>
+          <t>14,66</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>3,63</t>
+          <t>10,48</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>24,07</t>
+          <t>-1,04</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>6,79</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>9,79</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>3,8</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>12,12</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>10,83</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>-1,12</t>
         </is>
       </c>
     </row>
@@ -1828,62 +2386,92 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,34; 18,65</t>
+          <t>1,35; 18,37</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2,01; 17,32</t>
+          <t>2,51; 18,34</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-6,91; 5,85</t>
+          <t>-7,71; 5,75</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>12,15; 29,67</t>
+          <t>1,44; 17,27</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 11,23</t>
+          <t>1,36; 20,15</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,56; 17,17</t>
+          <t>-11,63; 9,0</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 14,89</t>
+          <t>-4,32; 12,5</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>17,3; 34,96</t>
+          <t>0,91; 17,81</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,18; 12,21</t>
+          <t>-1,0; 15,49</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>3,61; 15,04</t>
+          <t>5,76; 24,81</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 9,05</t>
+          <t>0,28; 21,64</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>17,48; 30,44</t>
+          <t>-10,41; 9,0</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>0,83; 13,11</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>4,46; 15,66</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-1,21; 9,38</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>6,45; 18,6</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>4,1; 17,99</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>-8,18; 6,29</t>
         </is>
       </c>
     </row>
@@ -1896,62 +2484,92 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>58,34%</t>
+          <t>59,77%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>58,01%</t>
+          <t>62,46%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-2,49%</t>
+          <t>-1,75%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>129,96%</t>
+          <t>55,31%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>10,6%</t>
+          <t>44,96%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>32,7%</t>
+          <t>-2,07%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>25,43%</t>
+          <t>13,08%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>92,95%</t>
+          <t>33,07%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>28,59%</t>
+          <t>25,99%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>42,35%</t>
+          <t>52,07%</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>16,39%</t>
+          <t>24,46%</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>108,68%</t>
+          <t>-1,91%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>30,67%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>44,18%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>17,16%</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>54,74%</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>31,59%</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>-2,42%</t>
         </is>
       </c>
     </row>
@@ -1964,62 +2582,92 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>3,18; 138,39</t>
+          <t>6,19; 138,2</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>8,27; 129,6</t>
+          <t>11,78; 139,78</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-34,05; 47,39</t>
+          <t>-37,47; 45,8</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>60,38; 223,88</t>
+          <t>6,77; 134,26</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-17,29; 47,19</t>
+          <t>4,97; 99,95</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>1,62; 71,13</t>
+          <t>-26,96; 28,08</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 61,92</t>
+          <t>-13,74; 52,68</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>51,94; 147,21</t>
+          <t>2,79; 72,78</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 61,06</t>
+          <t>-2,84; 63,84</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>14,32; 79,3</t>
+          <t>17,25; 105,1</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 46,71</t>
+          <t>0,54; 57,85</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>70,21; 156,82</t>
+          <t>-17,88; 17,77</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>3,03; 67,23</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>17,98; 80,66</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-4,91; 47,49</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>25,74; 98,16</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>10,5; 57,64</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>-16,35; 14,73</t>
         </is>
       </c>
     </row>
@@ -2036,62 +2684,92 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>2,73</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>4,72</t>
+          <t>2,91</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>6,67</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>4,86</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>10,77</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>1,31</t>
+          <t>16,12</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>-0,58</t>
+          <t>11,36</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>8,19</t>
+          <t>16,71</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>0,46</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>2,02</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>0,58</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>10,32</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>9,72</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>11,86</t>
         </is>
       </c>
     </row>
@@ -2104,62 +2782,92 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-8,24; 10,06</t>
+          <t>-8,86; 8,76</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-6,76; 10,47</t>
+          <t>-6,17; 11,75</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-9,19; 8,43</t>
+          <t>-9,14; 8,03</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 14,29</t>
+          <t>-7,03; 12,18</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-7,57; 9,22</t>
+          <t>-3,79; 16,88</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-6,95; 8,67</t>
+          <t>-6,45; 15,43</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-9,15; 6,84</t>
+          <t>-7,68; 9,27</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>1,01; 22,12</t>
+          <t>-6,42; 8,84</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 6,52</t>
+          <t>-7,02; 9,46</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 7,09</t>
+          <t>6,98; 27,05</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 5,98</t>
+          <t>0,04; 23,67</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>0,83; 15,24</t>
+          <t>4,19; 29,46</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-5,28; 6,21</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-3,83; 8,14</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-5,82; 6,77</t>
+        </is>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>3,45; 18,42</t>
+        </is>
+      </c>
+      <c r="S25" s="2" t="inlineStr">
+        <is>
+          <t>1,34; 17,74</t>
+        </is>
+      </c>
+      <c r="T25" s="2" t="inlineStr">
+        <is>
+          <t>3,0; 20,07</t>
         </is>
       </c>
     </row>
@@ -2172,62 +2880,92 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>3,05%</t>
+          <t>-0,27%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>11,23%</t>
+          <t>13,96%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-1,78%</t>
+          <t>-1,18%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>24,12%</t>
+          <t>14,89%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>29,69%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>20,01%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-2,78%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>42,1%</t>
+          <t>5,96%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>62,96%</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>-2,54%</t>
+          <t>27,24%</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>35,58%</t>
+          <t>45,95%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>2,0%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>8,8%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>2,52%</t>
+        </is>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>44,86%</t>
+        </is>
+      </c>
+      <c r="S26" s="2" t="inlineStr">
+        <is>
+          <t>29,16%</t>
+        </is>
+      </c>
+      <c r="T26" s="2" t="inlineStr">
+        <is>
+          <t>38,01%</t>
         </is>
       </c>
     </row>
@@ -2240,62 +2978,92 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-33,96; 69,29</t>
+          <t>-37,09; 54,26</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-28,92; 67,95</t>
+          <t>-27,43; 73,8</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-38,94; 53,78</t>
+          <t>-38,46; 50,45</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-20,05; 94,98</t>
+          <t>-30,31; 80,19</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-26,58; 41,66</t>
+          <t>-14,62; 100,12</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-23,93; 38,67</t>
+          <t>-21,83; 81,71</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-32,08; 30,92</t>
+          <t>-26,59; 41,32</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>3,13; 97,82</t>
+          <t>-22,02; 39,68</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-22,25; 33,36</t>
+          <t>-24,61; 43,99</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>-17,66; 34,86</t>
+          <t>25,62; 126,98</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>-24,07; 30,6</t>
+          <t>0,34; 67,64</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
         <is>
-          <t>2,52; 72,38</t>
+          <t>9,63; 100,52</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>-21,08; 30,78</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-14,67; 39,85</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-22,16; 32,23</t>
+        </is>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>13,12; 89,22</t>
+        </is>
+      </c>
+      <c r="S27" s="2" t="inlineStr">
+        <is>
+          <t>3,6; 60,23</t>
+        </is>
+      </c>
+      <c r="T27" s="2" t="inlineStr">
+        <is>
+          <t>8,06; 75,93</t>
         </is>
       </c>
     </row>
@@ -2312,62 +3080,92 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>3,77</t>
+          <t>3,99</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>1,09</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-1,79</t>
+          <t>-1,66</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>7,37</t>
+          <t>6,63</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-1,39</t>
+          <t>5,95</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-3,39</t>
+          <t>5,21</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-2,66</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>8,81</t>
+          <t>-3,01</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>-2,27</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>-1,2</t>
+          <t>3,01</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>-2,23</t>
+          <t>8,73</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>7,94</t>
+          <t>2,92</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>1,48</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>-1,0</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>-1,97</t>
+        </is>
+      </c>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
+          <t>4,79</t>
+        </is>
+      </c>
+      <c r="S28" s="2" t="inlineStr">
+        <is>
+          <t>7,25</t>
+        </is>
+      </c>
+      <c r="T28" s="2" t="inlineStr">
+        <is>
+          <t>4,1</t>
         </is>
       </c>
     </row>
@@ -2380,62 +3178,92 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,01; 7,56</t>
+          <t>0,45; 8,15</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 4,33</t>
+          <t>-2,05; 4,46</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 1,44</t>
+          <t>-4,8; 1,84</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>3,26; 10,85</t>
+          <t>2,65; 11,61</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 1,69</t>
+          <t>0,24; 10,5</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-6,62; -0,19</t>
+          <t>0,7; 9,86</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 0,57</t>
+          <t>-4,56; 2,57</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>4,94; 12,59</t>
+          <t>-6,51; 0,34</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 3,87</t>
+          <t>-5,33; 1,2</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 1,12</t>
+          <t>-0,71; 6,91</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 0,12</t>
+          <t>4,16; 12,76</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>5,11; 10,78</t>
+          <t>-1,6; 7,16</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>-1,2; 3,93</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>-3,18; 1,63</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>-4,3; 0,34</t>
+        </is>
+      </c>
+      <c r="R29" s="2" t="inlineStr">
+        <is>
+          <t>1,99; 7,72</t>
+        </is>
+      </c>
+      <c r="S29" s="2" t="inlineStr">
+        <is>
+          <t>3,91; 10,56</t>
+        </is>
+      </c>
+      <c r="T29" s="2" t="inlineStr">
+        <is>
+          <t>1,3; 7,76</t>
         </is>
       </c>
     </row>
@@ -2448,62 +3276,92 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>18,71%</t>
+          <t>19,83%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>5,54%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-8,89%</t>
+          <t>-8,23%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>36,63%</t>
+          <t>32,96%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-4,14%</t>
+          <t>22,22%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-10,07%</t>
+          <t>18,94%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-7,92%</t>
+          <t>-2,7%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>26,21%</t>
+          <t>-8,96%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>-6,74%</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>-4,44%</t>
+          <t>8,94%</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>-8,27%</t>
+          <t>23,82%</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>29,37%</t>
+          <t>6,89%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>5,48%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>-3,68%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>-7,28%</t>
+        </is>
+      </c>
+      <c r="R30" s="2" t="inlineStr">
+        <is>
+          <t>17,71%</t>
+        </is>
+      </c>
+      <c r="S30" s="2" t="inlineStr">
+        <is>
+          <t>22,78%</t>
+        </is>
+      </c>
+      <c r="T30" s="2" t="inlineStr">
+        <is>
+          <t>11,72%</t>
         </is>
       </c>
     </row>
@@ -2516,78 +3374,115 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 40,42</t>
+          <t>0,83; 42,65</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-10,11; 23,13</t>
+          <t>-9,33; 24,41</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-22,34; 7,72</t>
+          <t>-21,82; 10,77</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>14,59; 57,78</t>
+          <t>12,38; 61,42</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-14,81; 5,24</t>
+          <t>0,75; 43,93</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-18,81; -0,59</t>
+          <t>2,41; 38,89</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-17,6; 1,92</t>
+          <t>-12,66; 8,15</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>14,01; 38,99</t>
+          <t>-18,06; 1,24</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 15,03</t>
+          <t>-15,27; 3,79</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>-13,35; 4,32</t>
+          <t>-1,96; 22,26</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>-16,29; 0,45</t>
+          <t>10,83; 37,12</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>17,95; 41,33</t>
+          <t>-3,63; 17,98</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>-4,41; 15,09</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>-11,28; 6,36</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>-15,15; 1,16</t>
+        </is>
+      </c>
+      <c r="R31" s="2" t="inlineStr">
+        <is>
+          <t>6,66; 30,31</t>
+        </is>
+      </c>
+      <c r="S31" s="2" t="inlineStr">
+        <is>
+          <t>11,6; 35,13</t>
+        </is>
+      </c>
+      <c r="T31" s="2" t="inlineStr">
+        <is>
+          <t>3,36; 23,16</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
